--- a/Graph/Dataset/Build/Users-RATE-Games/T2_Users-RATE-Games.xlsx
+++ b/Graph/Dataset/Build/Users-RATE-Games/T2_Users-RATE-Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riccardo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7607F07F-BD68-497A-A346-A5914A6E60BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F61749-E8E7-47FC-BD44-96313C8101D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9888" yWindow="1716" windowWidth="23040" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18936" yWindow="1092" windowWidth="23040" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="47">
   <si>
     <t>adri</t>
   </si>
@@ -355,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{695AE3CB-1F47-436F-9631-D05FEDDCDC7D}" name="Tabella2" displayName="Tabella2" ref="A1:D239" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
-  <autoFilter ref="A1:D239" xr:uid="{52E59638-8EA2-4D53-BC61-23DE39A3630B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{695AE3CB-1F47-436F-9631-D05FEDDCDC7D}" name="Tabella2" displayName="Tabella2" ref="A1:D237" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
+  <autoFilter ref="A1:D237" xr:uid="{52E59638-8EA2-4D53-BC61-23DE39A3630B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{51481047-F5DC-44B2-872D-CB3729A925B5}" name=":START_ID"/>
     <tableColumn id="2" xr3:uid="{E9D78C8D-C20B-459D-9230-E58EA21CB2CD}" name=":TYPE"/>
@@ -630,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D239"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,17 +701,17 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3328</v>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4252</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -725,7 +725,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>4252</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -736,94 +736,94 @@
         <v>45</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>3328</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>13536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
         <v>10213</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>13536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>3272</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5286</v>
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>802</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,10 +834,10 @@
         <v>45</v>
       </c>
       <c r="C14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>802</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,10 +848,10 @@
         <v>45</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>2454</v>
+        <v>766</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -862,24 +862,24 @@
         <v>45</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2">
-        <v>766</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3636</v>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -890,15 +890,15 @@
         <v>45</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2">
-        <v>422</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>45</v>
@@ -907,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>3272</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -918,80 +918,80 @@
         <v>45</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2">
-        <v>3939</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>4459</v>
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5286</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>5286</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
+      <c r="A23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>4828</v>
+        <v>11859</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>11859</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="4">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1030</v>
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3328</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>3328</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1016,38 +1016,38 @@
         <v>45</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>4200</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>32</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="4">
-        <v>5</v>
-      </c>
-      <c r="D29" s="4">
-        <v>4459</v>
+      <c r="A29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3">
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1058,10 +1058,10 @@
         <v>45</v>
       </c>
       <c r="C30" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2">
-        <v>278</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1072,10 +1072,10 @@
         <v>45</v>
       </c>
       <c r="C31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3">
-        <v>4806</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1086,38 +1086,38 @@
         <v>45</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2">
-        <v>1447</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3272</v>
+      <c r="A33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4291</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2">
-        <v>4291</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1128,10 +1128,10 @@
         <v>45</v>
       </c>
       <c r="C35" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>4286</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1145,21 +1145,21 @@
         <v>4</v>
       </c>
       <c r="D36" s="2">
-        <v>4062</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="4">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4">
-        <v>4427</v>
+      <c r="B37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="3">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3328</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1173,12 +1173,12 @@
         <v>5</v>
       </c>
       <c r="D38" s="2">
-        <v>3328</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>45</v>
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>5679</v>
+        <v>29028</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1198,24 +1198,24 @@
         <v>45</v>
       </c>
       <c r="C40" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2">
-        <v>29028</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="4">
-        <v>3</v>
-      </c>
-      <c r="D41" s="4">
-        <v>2454</v>
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2462</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1226,24 +1226,24 @@
         <v>45</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2">
-        <v>2462</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="3">
-        <v>3287</v>
+        <v>11859</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1254,24 +1254,24 @@
         <v>45</v>
       </c>
       <c r="C44" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" s="2">
-        <v>11859</v>
+        <v>58175</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="4">
-        <v>5</v>
-      </c>
-      <c r="D45" s="4">
-        <v>58175</v>
+      <c r="B45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3498</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1282,24 +1282,24 @@
         <v>45</v>
       </c>
       <c r="C46" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" s="2">
-        <v>3498</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="3">
-        <v>3192</v>
+        <v>19487</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1310,24 +1310,24 @@
         <v>45</v>
       </c>
       <c r="C48" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" s="2">
-        <v>19487</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="4">
-        <v>3</v>
-      </c>
-      <c r="D49" s="4">
-        <v>3636</v>
+      <c r="B49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3">
+        <v>7689</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1338,24 +1338,24 @@
         <v>45</v>
       </c>
       <c r="C50" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2">
-        <v>7689</v>
+        <v>11973</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="3">
-        <v>11973</v>
+        <v>766</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1366,24 +1366,24 @@
         <v>45</v>
       </c>
       <c r="C52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" s="2">
-        <v>766</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="4">
-        <v>2</v>
-      </c>
-      <c r="D53" s="4">
-        <v>278</v>
+      <c r="B53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3">
+        <v>3070</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1397,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="2">
-        <v>3070</v>
+        <v>13536</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="3">
-        <v>13536</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1422,24 +1422,24 @@
         <v>45</v>
       </c>
       <c r="C56" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" s="2">
-        <v>3272</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="4">
-        <v>2</v>
-      </c>
-      <c r="D57" s="4">
-        <v>32</v>
+      <c r="A57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="3">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3328</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1453,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="2">
-        <v>3328</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1464,10 +1464,10 @@
         <v>45</v>
       </c>
       <c r="C59" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" s="3">
-        <v>4459</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1478,38 +1478,38 @@
         <v>45</v>
       </c>
       <c r="C60" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" s="2">
-        <v>2454</v>
+        <v>17822</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="4">
-        <v>5</v>
-      </c>
-      <c r="D61" s="4">
-        <v>17822</v>
+      <c r="B61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="3">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3">
+        <v>5679</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" s="2">
-        <v>5679</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1520,10 +1520,10 @@
         <v>45</v>
       </c>
       <c r="C63" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" s="3">
-        <v>4200</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1534,24 +1534,24 @@
         <v>45</v>
       </c>
       <c r="C64" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" s="2">
-        <v>5286</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="4">
-        <v>4</v>
-      </c>
-      <c r="D65" s="4">
-        <v>3272</v>
+      <c r="B65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1562,10 +1562,10 @@
         <v>45</v>
       </c>
       <c r="C66" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66" s="2">
-        <v>28</v>
+        <v>19709</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1579,35 +1579,35 @@
         <v>5</v>
       </c>
       <c r="D67" s="3">
-        <v>19709</v>
+        <v>19710</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C68" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" s="2">
-        <v>19710</v>
+        <v>29028</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="4">
-        <v>4</v>
-      </c>
-      <c r="D69" s="4">
-        <v>29028</v>
+      <c r="B69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="3">
+        <v>3</v>
+      </c>
+      <c r="D69" s="3">
+        <v>3496</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1618,10 +1618,10 @@
         <v>45</v>
       </c>
       <c r="C70" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" s="2">
-        <v>3496</v>
+        <v>58175</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1632,10 +1632,10 @@
         <v>45</v>
       </c>
       <c r="C71" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" s="3">
-        <v>58175</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1646,24 +1646,24 @@
         <v>45</v>
       </c>
       <c r="C72" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" s="2">
-        <v>32</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="4">
-        <v>3</v>
-      </c>
-      <c r="D73" s="4">
-        <v>278</v>
+      <c r="A73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="3">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3">
+        <v>13537</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1674,10 +1674,10 @@
         <v>45</v>
       </c>
       <c r="C74" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" s="2">
-        <v>13537</v>
+        <v>13535</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1688,10 +1688,10 @@
         <v>45</v>
       </c>
       <c r="C75" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" s="3">
-        <v>13535</v>
+        <v>19710</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1705,21 +1705,21 @@
         <v>5</v>
       </c>
       <c r="D76" s="2">
-        <v>19710</v>
+        <v>19709</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="4">
-        <v>5</v>
-      </c>
-      <c r="D77" s="4">
-        <v>19709</v>
+      <c r="A77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="3">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3">
+        <v>3070</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,10 +1730,10 @@
         <v>45</v>
       </c>
       <c r="C78" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" s="2">
-        <v>3070</v>
+        <v>19103</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1744,10 +1744,10 @@
         <v>45</v>
       </c>
       <c r="C79" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" s="3">
-        <v>19103</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1758,24 +1758,24 @@
         <v>45</v>
       </c>
       <c r="C80" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" s="2">
-        <v>4200</v>
+        <v>13536</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="4">
-        <v>2</v>
-      </c>
-      <c r="D81" s="4">
-        <v>13536</v>
+      <c r="A81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="3">
+        <v>4</v>
+      </c>
+      <c r="D81" s="3">
+        <v>3328</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1786,10 +1786,10 @@
         <v>45</v>
       </c>
       <c r="C82" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" s="2">
-        <v>3328</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1800,10 +1800,10 @@
         <v>45</v>
       </c>
       <c r="C83" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" s="3">
-        <v>10213</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1814,24 +1814,24 @@
         <v>45</v>
       </c>
       <c r="C84" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" s="2">
-        <v>1030</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="4">
-        <v>4</v>
-      </c>
-      <c r="D85" s="4">
-        <v>3636</v>
+      <c r="A85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="3">
+        <v>4</v>
+      </c>
+      <c r="D85" s="3">
+        <v>11859</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1842,10 +1842,10 @@
         <v>45</v>
       </c>
       <c r="C86" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" s="2">
-        <v>11859</v>
+        <v>13536</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1856,10 +1856,10 @@
         <v>45</v>
       </c>
       <c r="C87" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" s="3">
-        <v>13536</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1870,38 +1870,38 @@
         <v>45</v>
       </c>
       <c r="C88" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" s="2">
-        <v>3939</v>
+        <v>802</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="4">
-        <v>2</v>
-      </c>
-      <c r="D89" s="4">
-        <v>802</v>
+      <c r="B89" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="3">
+        <v>4</v>
+      </c>
+      <c r="D89" s="3">
+        <v>3612</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" s="2">
-        <v>3612</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="3">
-        <v>10035</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1926,38 +1926,38 @@
         <v>45</v>
       </c>
       <c r="C92" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" s="2">
-        <v>4570</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="4">
-        <v>4</v>
-      </c>
-      <c r="D93" s="4">
-        <v>3696</v>
+      <c r="B93" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="3">
+        <v>5</v>
+      </c>
+      <c r="D93" s="3">
+        <v>4828</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C94" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" s="2">
-        <v>4828</v>
+        <v>13633</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1968,10 +1968,10 @@
         <v>45</v>
       </c>
       <c r="C95" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" s="3">
-        <v>13633</v>
+        <v>11973</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1982,24 +1982,24 @@
         <v>45</v>
       </c>
       <c r="C96" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" s="2">
-        <v>11973</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="4">
-        <v>3</v>
-      </c>
-      <c r="D97" s="4">
-        <v>4570</v>
+      <c r="B97" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="3">
+        <v>3</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1447</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2010,15 +2010,15 @@
         <v>45</v>
       </c>
       <c r="C98" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" s="2">
-        <v>1447</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>45</v>
@@ -2027,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="D99" s="3">
-        <v>3790</v>
+        <v>18080</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2038,24 +2038,24 @@
         <v>45</v>
       </c>
       <c r="C100" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" s="2">
-        <v>18080</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C101" s="4">
-        <v>2</v>
-      </c>
-      <c r="D101" s="4">
-        <v>278</v>
+      <c r="B101" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3</v>
+      </c>
+      <c r="D101" s="3">
+        <v>802</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2066,10 +2066,10 @@
         <v>45</v>
       </c>
       <c r="C102" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102" s="2">
-        <v>802</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2080,38 +2080,38 @@
         <v>45</v>
       </c>
       <c r="C103" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D103" s="3">
-        <v>3272</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C104" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D104" s="2">
-        <v>3939</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C105" s="4">
-        <v>2</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1030</v>
+      <c r="B105" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="3">
+        <v>3</v>
+      </c>
+      <c r="D105" s="3">
+        <v>29028</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2122,10 +2122,10 @@
         <v>45</v>
       </c>
       <c r="C106" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D106" s="2">
-        <v>29028</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="D107" s="3">
-        <v>10213</v>
+        <v>12020</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2150,24 +2150,24 @@
         <v>45</v>
       </c>
       <c r="C108" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D108" s="2">
-        <v>12020</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C109" s="4">
-        <v>5</v>
-      </c>
-      <c r="D109" s="4">
-        <v>3192</v>
+      <c r="A109" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="3">
+        <v>4</v>
+      </c>
+      <c r="D109" s="3">
+        <v>13633</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2178,10 +2178,10 @@
         <v>45</v>
       </c>
       <c r="C110" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D110" s="2">
-        <v>13633</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2192,10 +2192,10 @@
         <v>45</v>
       </c>
       <c r="C111" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D111" s="3">
-        <v>10035</v>
+        <v>13537</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2206,38 +2206,38 @@
         <v>45</v>
       </c>
       <c r="C112" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D112" s="2">
-        <v>13537</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C113" s="4">
-        <v>2</v>
-      </c>
-      <c r="D113" s="4">
-        <v>3498</v>
+      <c r="B113" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" s="3">
+        <v>5</v>
+      </c>
+      <c r="D113" s="3">
+        <v>3328</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C114" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D114" s="2">
-        <v>3328</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,10 +2248,10 @@
         <v>45</v>
       </c>
       <c r="C115" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D115" s="3">
-        <v>4286</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2262,24 +2262,24 @@
         <v>45</v>
       </c>
       <c r="C116" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D116" s="2">
-        <v>3062</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C117" s="4">
-        <v>3</v>
-      </c>
-      <c r="D117" s="4">
-        <v>5679</v>
+      <c r="B117" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="3">
+        <v>2</v>
+      </c>
+      <c r="D117" s="3">
+        <v>766</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2290,10 +2290,10 @@
         <v>45</v>
       </c>
       <c r="C118" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D118" s="2">
-        <v>766</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2304,10 +2304,10 @@
         <v>45</v>
       </c>
       <c r="C119" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D119" s="3">
-        <v>1030</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2318,24 +2318,24 @@
         <v>45</v>
       </c>
       <c r="C120" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D120" s="2">
-        <v>3192</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C121" s="4">
-        <v>2</v>
-      </c>
-      <c r="D121" s="4">
-        <v>10035</v>
+      <c r="B121" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="3">
+        <v>5</v>
+      </c>
+      <c r="D121" s="3">
+        <v>4828</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2346,10 +2346,10 @@
         <v>45</v>
       </c>
       <c r="C122" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D122" s="2">
-        <v>4828</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2360,10 +2360,10 @@
         <v>45</v>
       </c>
       <c r="C123" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D123" s="3">
-        <v>2454</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2374,24 +2374,24 @@
         <v>45</v>
       </c>
       <c r="C124" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D124" s="2">
-        <v>10213</v>
+        <v>802</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C125" s="4">
-        <v>4</v>
-      </c>
-      <c r="D125" s="4">
-        <v>802</v>
+        <v>24</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125" s="3">
+        <v>4</v>
+      </c>
+      <c r="D125" s="3">
+        <v>11973</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2402,10 +2402,10 @@
         <v>45</v>
       </c>
       <c r="C126" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D126" s="2">
-        <v>11973</v>
+        <v>13633</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2416,10 +2416,10 @@
         <v>45</v>
       </c>
       <c r="C127" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D127" s="3">
-        <v>13633</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2430,24 +2430,24 @@
         <v>45</v>
       </c>
       <c r="C128" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D128" s="2">
-        <v>4332</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C129" s="4">
-        <v>2</v>
-      </c>
-      <c r="D129" s="4">
-        <v>28</v>
+      <c r="B129" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="3">
+        <v>5</v>
+      </c>
+      <c r="D129" s="3">
+        <v>4828</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2461,21 +2461,21 @@
         <v>5</v>
       </c>
       <c r="D130" s="2">
-        <v>4828</v>
+        <v>13668</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C131" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D131" s="3">
-        <v>13668</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2486,24 +2486,24 @@
         <v>45</v>
       </c>
       <c r="C132" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D132" s="2">
-        <v>3272</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C133" s="4">
-        <v>3</v>
-      </c>
-      <c r="D133" s="4">
-        <v>28</v>
+      <c r="B133" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" s="3">
+        <v>5</v>
+      </c>
+      <c r="D133" s="3">
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2517,21 +2517,21 @@
         <v>5</v>
       </c>
       <c r="D134" s="2">
-        <v>32</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C135" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D135" s="3">
-        <v>3328</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2542,24 +2542,24 @@
         <v>45</v>
       </c>
       <c r="C136" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136" s="2">
-        <v>10213</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C137" s="4">
-        <v>3</v>
-      </c>
-      <c r="D137" s="4">
-        <v>3498</v>
+      <c r="B137" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="3">
+        <v>5</v>
+      </c>
+      <c r="D137" s="3">
+        <v>3291</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2570,10 +2570,10 @@
         <v>45</v>
       </c>
       <c r="C138" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D138" s="2">
-        <v>3291</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2584,38 +2584,38 @@
         <v>45</v>
       </c>
       <c r="C139" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D139" s="3">
-        <v>5689</v>
+        <v>13536</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C140" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D140" s="2">
-        <v>13536</v>
+        <v>13910</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C141" s="4">
-        <v>4</v>
-      </c>
-      <c r="D141" s="4">
-        <v>13910</v>
+      <c r="B141" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="3">
+        <v>5</v>
+      </c>
+      <c r="D141" s="3">
+        <v>11934</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2626,24 +2626,24 @@
         <v>45</v>
       </c>
       <c r="C142" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D142" s="2">
-        <v>11934</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C143" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D143" s="3">
-        <v>3696</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2654,24 +2654,24 @@
         <v>45</v>
       </c>
       <c r="C144" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D144" s="2">
-        <v>10213</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C145" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D145" s="3">
-        <v>3328</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2682,24 +2682,24 @@
         <v>45</v>
       </c>
       <c r="C146" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D146" s="2">
-        <v>2454</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C147" s="4">
-        <v>5</v>
-      </c>
-      <c r="D147" s="4">
-        <v>5286</v>
+      <c r="B147" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" s="3">
+        <v>4</v>
+      </c>
+      <c r="D147" s="3">
+        <v>19487</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -2710,10 +2710,10 @@
         <v>45</v>
       </c>
       <c r="C148" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D148" s="2">
-        <v>19487</v>
+        <v>12020</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2724,10 +2724,10 @@
         <v>45</v>
       </c>
       <c r="C149" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D149" s="3">
-        <v>12020</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -2741,21 +2741,21 @@
         <v>5</v>
       </c>
       <c r="D150" s="2">
-        <v>4459</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C151" s="4">
-        <v>5</v>
-      </c>
-      <c r="D151" s="4">
-        <v>3439</v>
+      <c r="A151" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="3">
+        <v>3</v>
+      </c>
+      <c r="D151" s="3">
+        <v>4570</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -2766,10 +2766,10 @@
         <v>45</v>
       </c>
       <c r="C152" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D152" s="2">
-        <v>4570</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -2780,10 +2780,10 @@
         <v>45</v>
       </c>
       <c r="C153" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D153" s="3">
-        <v>7689</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -2797,21 +2797,21 @@
         <v>5</v>
       </c>
       <c r="D154" s="2">
-        <v>3790</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C155" s="4">
-        <v>5</v>
-      </c>
-      <c r="D155" s="4">
-        <v>4828</v>
+      <c r="B155" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C155" s="3">
+        <v>5</v>
+      </c>
+      <c r="D155" s="3">
+        <v>13668</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -2825,21 +2825,21 @@
         <v>5</v>
       </c>
       <c r="D156" s="2">
-        <v>13668</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C157" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D157" s="3">
-        <v>2454</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -2850,24 +2850,24 @@
         <v>45</v>
       </c>
       <c r="C158" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D158" s="2">
-        <v>4806</v>
+        <v>13910</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C159" s="4">
-        <v>5</v>
-      </c>
-      <c r="D159" s="4">
-        <v>13910</v>
+      <c r="B159" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C159" s="3">
+        <v>4</v>
+      </c>
+      <c r="D159" s="3">
+        <v>3696</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -2878,10 +2878,10 @@
         <v>45</v>
       </c>
       <c r="C160" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D160" s="2">
-        <v>3696</v>
+        <v>16944</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -2895,35 +2895,35 @@
         <v>5</v>
       </c>
       <c r="D161" s="3">
-        <v>16944</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C162" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D162" s="2">
-        <v>3328</v>
+        <v>13668</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C163" s="4">
-        <v>4</v>
-      </c>
-      <c r="D163" s="4">
-        <v>13668</v>
+      <c r="B163" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C163" s="3">
+        <v>5</v>
+      </c>
+      <c r="D163" s="3">
+        <v>4570</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -2937,7 +2937,7 @@
         <v>5</v>
       </c>
       <c r="D164" s="2">
-        <v>4570</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -2948,10 +2948,10 @@
         <v>45</v>
       </c>
       <c r="C165" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D165" s="3">
-        <v>3328</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -2962,24 +2962,24 @@
         <v>45</v>
       </c>
       <c r="C166" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D166" s="2">
-        <v>3070</v>
+        <v>58175</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C167" s="4">
-        <v>3</v>
-      </c>
-      <c r="D167" s="4">
-        <v>58175</v>
+      <c r="A167" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C167" s="3">
+        <v>4</v>
+      </c>
+      <c r="D167" s="3">
+        <v>5286</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -2990,10 +2990,10 @@
         <v>45</v>
       </c>
       <c r="C168" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D168" s="2">
-        <v>5286</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3007,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="D169" s="3">
-        <v>2454</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3018,29 +3018,29 @@
         <v>45</v>
       </c>
       <c r="C170" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D170" s="2">
-        <v>5679</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C171" s="4">
-        <v>3</v>
-      </c>
-      <c r="D171" s="4">
-        <v>3328</v>
+      <c r="B171" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="3">
+        <v>4</v>
+      </c>
+      <c r="D171" s="3">
+        <v>10213</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
-        <v>32</v>
+      <c r="A172" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>45</v>
@@ -3049,25 +3049,25 @@
         <v>4</v>
       </c>
       <c r="D172" s="2">
-        <v>10213</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C173" s="3">
-        <v>2</v>
-      </c>
-      <c r="D173" s="3">
-        <v>5286</v>
+        <v>33</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C173" s="4">
+        <v>5</v>
+      </c>
+      <c r="D173" s="4">
+        <v>4286</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -3077,21 +3077,21 @@
         <v>4</v>
       </c>
       <c r="D174" s="2">
-        <v>3439</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B175" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C175" s="4">
-        <v>5</v>
-      </c>
-      <c r="D175" s="4">
-        <v>4286</v>
+      <c r="B175" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C175" s="3">
+        <v>5</v>
+      </c>
+      <c r="D175" s="3">
+        <v>5679</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3105,21 +3105,21 @@
         <v>4</v>
       </c>
       <c r="D176" s="2">
-        <v>4062</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C177" s="3">
-        <v>5</v>
-      </c>
-      <c r="D177" s="3">
-        <v>5679</v>
+      <c r="B177" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C177" s="4">
+        <v>5</v>
+      </c>
+      <c r="D177" s="4">
+        <v>3498</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3133,53 +3133,53 @@
         <v>4</v>
       </c>
       <c r="D178" s="2">
-        <v>3328</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C179" s="4">
-        <v>5</v>
-      </c>
-      <c r="D179" s="4">
-        <v>3498</v>
+      <c r="B179" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C180" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D180" s="2">
-        <v>4459</v>
+        <v>18080</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C181" s="3">
-        <v>1</v>
-      </c>
-      <c r="D181" s="3">
-        <v>28</v>
+      <c r="A181" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C181" s="4">
+        <v>5</v>
+      </c>
+      <c r="D181" s="4">
+        <v>19709</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -3189,21 +3189,21 @@
         <v>5</v>
       </c>
       <c r="D182" s="2">
-        <v>18080</v>
+        <v>19710</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C183" s="4">
-        <v>5</v>
-      </c>
-      <c r="D183" s="4">
-        <v>19709</v>
+      <c r="B183" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C183" s="3">
+        <v>4</v>
+      </c>
+      <c r="D183" s="3">
+        <v>19103</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3217,26 +3217,26 @@
         <v>5</v>
       </c>
       <c r="D184" s="2">
-        <v>19710</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C185" s="3">
-        <v>4</v>
-      </c>
-      <c r="D185" s="3">
-        <v>19103</v>
+      <c r="B185" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C185" s="4">
+        <v>4</v>
+      </c>
+      <c r="D185" s="4">
+        <v>13536</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="4" t="s">
-        <v>34</v>
+      <c r="A186" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>45</v>
@@ -3245,21 +3245,21 @@
         <v>5</v>
       </c>
       <c r="D186" s="2">
-        <v>4200</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C187" s="4">
-        <v>4</v>
-      </c>
-      <c r="D187" s="4">
-        <v>13536</v>
+      <c r="A187" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C187" s="3">
+        <v>4</v>
+      </c>
+      <c r="D187" s="3">
+        <v>1633</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3273,21 +3273,21 @@
         <v>5</v>
       </c>
       <c r="D188" s="2">
-        <v>3287</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C189" s="3">
-        <v>4</v>
-      </c>
-      <c r="D189" s="3">
-        <v>1633</v>
+      <c r="B189" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C189" s="4">
+        <v>3</v>
+      </c>
+      <c r="D189" s="4">
+        <v>3939</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3301,26 +3301,26 @@
         <v>5</v>
       </c>
       <c r="D190" s="2">
-        <v>4559</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B191" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C191" s="4">
-        <v>3</v>
-      </c>
-      <c r="D191" s="4">
-        <v>3939</v>
+      <c r="B191" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C191" s="3">
+        <v>4</v>
+      </c>
+      <c r="D191" s="3">
+        <v>13668</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>45</v>
@@ -3329,21 +3329,21 @@
         <v>5</v>
       </c>
       <c r="D192" s="2">
-        <v>3328</v>
+        <v>422</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C193" s="3">
-        <v>4</v>
-      </c>
-      <c r="D193" s="3">
-        <v>13668</v>
+      <c r="A193" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C193" s="4">
+        <v>4</v>
+      </c>
+      <c r="D193" s="4">
+        <v>4200</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -3357,21 +3357,21 @@
         <v>5</v>
       </c>
       <c r="D194" s="2">
-        <v>422</v>
+        <v>13537</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B195" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C195" s="4">
-        <v>4</v>
-      </c>
-      <c r="D195" s="4">
-        <v>4200</v>
+      <c r="B195" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C195" s="3">
+        <v>4</v>
+      </c>
+      <c r="D195" s="3">
+        <v>13633</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -3385,26 +3385,26 @@
         <v>5</v>
       </c>
       <c r="D196" s="2">
-        <v>13537</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C197" s="3">
-        <v>4</v>
-      </c>
-      <c r="D197" s="3">
-        <v>13633</v>
+      <c r="B197" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C197" s="4">
+        <v>4</v>
+      </c>
+      <c r="D197" s="4">
+        <v>10213</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>45</v>
@@ -3413,21 +3413,21 @@
         <v>5</v>
       </c>
       <c r="D198" s="2">
-        <v>3228</v>
+        <v>29028</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C199" s="4">
-        <v>4</v>
-      </c>
-      <c r="D199" s="4">
-        <v>10213</v>
+      <c r="A199" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C199" s="3">
+        <v>4</v>
+      </c>
+      <c r="D199" s="3">
+        <v>11973</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -3438,24 +3438,24 @@
         <v>45</v>
       </c>
       <c r="C200" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D200" s="2">
-        <v>29028</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C201" s="3">
-        <v>4</v>
-      </c>
-      <c r="D201" s="3">
-        <v>11973</v>
+      <c r="B201" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C201" s="4">
+        <v>2</v>
+      </c>
+      <c r="D201" s="4">
+        <v>3636</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -3466,24 +3466,24 @@
         <v>45</v>
       </c>
       <c r="C202" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D202" s="2">
-        <v>4828</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C203" s="4">
+      <c r="B203" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C203" s="3">
         <v>2</v>
       </c>
-      <c r="D203" s="4">
-        <v>3636</v>
+      <c r="D203" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -3494,52 +3494,52 @@
         <v>45</v>
       </c>
       <c r="C204" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D204" s="2">
-        <v>1030</v>
+        <v>11859</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C205" s="3">
-        <v>2</v>
-      </c>
-      <c r="D205" s="3">
-        <v>28</v>
+      <c r="A205" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C205" s="4">
+        <v>4</v>
+      </c>
+      <c r="D205" s="4">
+        <v>7689</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C206" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D206" s="2">
-        <v>11859</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C207" s="4">
-        <v>4</v>
-      </c>
-      <c r="D207" s="4">
-        <v>7689</v>
+      <c r="B207" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="3">
+        <v>3</v>
+      </c>
+      <c r="D207" s="3">
+        <v>3790</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -3550,24 +3550,24 @@
         <v>45</v>
       </c>
       <c r="C208" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D208" s="2">
-        <v>4806</v>
+        <v>13910</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C209" s="3">
-        <v>3</v>
-      </c>
-      <c r="D209" s="3">
-        <v>3790</v>
+      <c r="B209" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C209" s="4">
+        <v>4</v>
+      </c>
+      <c r="D209" s="4">
+        <v>4427</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -3578,24 +3578,24 @@
         <v>45</v>
       </c>
       <c r="C210" s="2">
+        <v>5</v>
+      </c>
+      <c r="D210" s="2">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C211" s="3">
         <v>2</v>
       </c>
-      <c r="D210" s="2">
-        <v>13910</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C211" s="4">
-        <v>4</v>
-      </c>
-      <c r="D211" s="4">
-        <v>4427</v>
+      <c r="D211" s="3">
+        <v>802</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -3609,26 +3609,26 @@
         <v>5</v>
       </c>
       <c r="D212" s="2">
-        <v>3287</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C213" s="3">
-        <v>2</v>
-      </c>
-      <c r="D213" s="3">
-        <v>802</v>
+      <c r="A213" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C213" s="4">
+        <v>4</v>
+      </c>
+      <c r="D213" s="4">
+        <v>10035</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>45</v>
@@ -3637,21 +3637,21 @@
         <v>5</v>
       </c>
       <c r="D214" s="2">
-        <v>3328</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C215" s="4">
-        <v>4</v>
-      </c>
-      <c r="D215" s="4">
-        <v>10035</v>
+      <c r="B215" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C215" s="3">
+        <v>4</v>
+      </c>
+      <c r="D215" s="3">
+        <v>3498</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -3665,21 +3665,21 @@
         <v>5</v>
       </c>
       <c r="D216" s="2">
-        <v>4286</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B217" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C217" s="3">
-        <v>4</v>
-      </c>
-      <c r="D217" s="3">
-        <v>3498</v>
+      <c r="B217" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C217" s="4">
+        <v>5</v>
+      </c>
+      <c r="D217" s="4">
+        <v>802</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -3690,52 +3690,52 @@
         <v>45</v>
       </c>
       <c r="C218" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D218" s="2">
-        <v>3328</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B219" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C219" s="4">
-        <v>5</v>
-      </c>
-      <c r="D219" s="4">
-        <v>802</v>
+      <c r="B219" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C219" s="3">
+        <v>4</v>
+      </c>
+      <c r="D219" s="3">
+        <v>1447</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C220" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D220" s="2">
-        <v>4386</v>
+        <v>32</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C221" s="3">
-        <v>4</v>
-      </c>
-      <c r="D221" s="3">
-        <v>1447</v>
+      <c r="A221" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C221" s="4">
+        <v>4</v>
+      </c>
+      <c r="D221" s="4">
+        <v>3070</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -3746,24 +3746,24 @@
         <v>45</v>
       </c>
       <c r="C222" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D222" s="2">
-        <v>32</v>
+        <v>16944</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C223" s="4">
-        <v>4</v>
-      </c>
-      <c r="D223" s="4">
-        <v>3070</v>
+      <c r="B223" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C223" s="3">
+        <v>5</v>
+      </c>
+      <c r="D223" s="3">
+        <v>3328</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -3777,21 +3777,21 @@
         <v>4</v>
       </c>
       <c r="D224" s="2">
-        <v>16944</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C225" s="3">
-        <v>5</v>
-      </c>
-      <c r="D225" s="3">
-        <v>3328</v>
+      <c r="B225" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C225" s="4">
+        <v>3</v>
+      </c>
+      <c r="D225" s="4">
+        <v>12020</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -3805,21 +3805,21 @@
         <v>4</v>
       </c>
       <c r="D226" s="2">
-        <v>4291</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C227" s="4">
-        <v>3</v>
-      </c>
-      <c r="D227" s="4">
-        <v>12020</v>
+      <c r="B227" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C227" s="3">
+        <v>5</v>
+      </c>
+      <c r="D227" s="3">
+        <v>4252</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -3830,52 +3830,52 @@
         <v>45</v>
       </c>
       <c r="C228" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D228" s="2">
-        <v>3636</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C229" s="3">
-        <v>5</v>
-      </c>
-      <c r="D229" s="3">
-        <v>4252</v>
+      <c r="A229" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C229" s="4">
+        <v>5</v>
+      </c>
+      <c r="D229" s="4">
+        <v>4806</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C230" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D230" s="2">
-        <v>2462</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B231" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C231" s="4">
-        <v>5</v>
-      </c>
-      <c r="D231" s="4">
-        <v>4806</v>
+      <c r="B231" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C231" s="3">
+        <v>5</v>
+      </c>
+      <c r="D231" s="3">
+        <v>1447</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -3886,24 +3886,24 @@
         <v>45</v>
       </c>
       <c r="C232" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D232" s="2">
-        <v>4570</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C233" s="3">
-        <v>5</v>
-      </c>
-      <c r="D233" s="3">
-        <v>1447</v>
+      <c r="B233" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C233" s="4">
+        <v>4</v>
+      </c>
+      <c r="D233" s="4">
+        <v>4286</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -3917,21 +3917,21 @@
         <v>3</v>
       </c>
       <c r="D234" s="2">
-        <v>4427</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C235" s="4">
-        <v>4</v>
-      </c>
-      <c r="D235" s="4">
-        <v>4286</v>
+      <c r="B235" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C235" s="3">
+        <v>5</v>
+      </c>
+      <c r="D235" s="3">
+        <v>13536</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -3942,10 +3942,10 @@
         <v>45</v>
       </c>
       <c r="C236" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D236" s="2">
-        <v>4062</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -3959,34 +3959,6 @@
         <v>5</v>
       </c>
       <c r="D237" s="3">
-        <v>13536</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C238" s="2">
-        <v>2</v>
-      </c>
-      <c r="D238" s="2">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C239" s="3">
-        <v>5</v>
-      </c>
-      <c r="D239" s="3">
         <v>3328</v>
       </c>
     </row>
